--- a/set_up_grasp_models/tests/test_files/test_check_models/HMP2360_r0_t0_mech_met_names_kinetics.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_check_models/HMP2360_r0_t0_mech_met_names_kinetics.xlsx
@@ -379,10 +379,10 @@
     <t>activators</t>
   </si>
   <si>
-    <t>negative effector</t>
-  </si>
-  <si>
-    <t>positive effector</t>
+    <t>negative effectors</t>
+  </si>
+  <si>
+    <t>positive effectors</t>
   </si>
   <si>
     <t>allosteric</t>
@@ -467,7 +467,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -493,6 +493,14 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -548,12 +556,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -577,7 +589,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -710,7 +722,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -856,7 +868,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1079,7 +1091,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1400,49 +1412,49 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8502024291498"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>118</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1743,7 +1755,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2680,7 +2692,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3064,7 +3076,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3287,7 +3299,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3384,7 +3396,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3516,7 +3528,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3648,7 +3660,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A1:K1 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3829,7 +3841,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="1" sqref="A1:K1 E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/set_up_grasp_models/tests/test_files/test_check_models/HMP2360_r0_t0_mech_met_names_kinetics.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_check_models/HMP2360_r0_t0_mech_met_names_kinetics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="130">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -45,7 +45,7 @@
     <t xml:space="preserve">Sampling mode (GRASP or rejection)</t>
   </si>
   <si>
-    <t xml:space="preserve">ORACLE</t>
+    <t xml:space="preserve">GRASP</t>
   </si>
   <si>
     <t xml:space="preserve">NLP solver (NLOPT or FMINCON (default))</t>
@@ -60,6 +60,15 @@
     <t xml:space="preserve">gurobi</t>
   </si>
   <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
   </si>
   <si>
@@ -312,34 +321,25 @@
     <t xml:space="preserve">max (M)</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluxes (umol/gCDW/h)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vref_mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vref_std</t>
+    <t xml:space="preserve">reaction ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_mean (mmol/L/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_std (mmol/L/h)</t>
   </si>
   <si>
     <t xml:space="preserve">enzyme/rxn</t>
   </si>
   <si>
-    <t xml:space="preserve">MBo10_LB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_meas2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_UB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_LB2 (M)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_UB2 (M)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction ID</t>
+    <t xml:space="preserve">lower_bound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upper_bound</t>
   </si>
   <si>
     <t xml:space="preserve">kinetic mechanism</t>
@@ -519,7 +519,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -532,6 +532,10 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -542,31 +546,30 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1048576"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L2:L16 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -611,29 +614,29 @@
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>1</v>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -641,15 +644,15 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1</v>
@@ -657,14 +660,28 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -677,38 +694,35 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L2:L16 A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938105540546311</v>
@@ -722,7 +736,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.948692986021061</v>
@@ -736,7 +750,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.963822080137339</v>
@@ -750,7 +764,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.781513345189378</v>
@@ -764,7 +778,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -778,7 +792,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -792,7 +806,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -806,7 +820,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -820,7 +834,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -834,7 +848,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -848,7 +862,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -862,7 +876,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -876,7 +890,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -900,38 +914,35 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L2:L16 A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.600926593306472</v>
@@ -945,7 +956,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -959,7 +970,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -973,7 +984,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -987,7 +998,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -1001,7 +1012,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.897059063218122</v>
@@ -1015,7 +1026,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.879431204670374</v>
@@ -1029,7 +1040,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.851303699101255</v>
@@ -1043,7 +1054,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.913109189061105</v>
@@ -1057,7 +1068,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.965053927008861</v>
@@ -1071,7 +1082,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.622035526990772</v>
@@ -1085,7 +1096,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.799696511562971</v>
@@ -1099,7 +1110,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1113,7 +1124,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1127,7 +1138,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.99</v>
@@ -1141,7 +1152,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1155,7 +1166,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.771228436522274</v>
@@ -1169,7 +1180,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.967924985045021</v>
@@ -1183,7 +1194,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.994407168746068</v>
@@ -1197,7 +1208,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.989083174460458</v>
@@ -1221,56 +1232,54 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2:L16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>112</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -1279,7 +1288,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>114</v>
@@ -1291,7 +1300,7 @@
         <v>115</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1302,7 +1311,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>116</v>
@@ -1325,7 +1334,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>120</v>
@@ -1340,7 +1349,7 @@
         <v>123</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1351,7 +1360,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>124</v>
@@ -1365,7 +1374,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>125</v>
@@ -1385,7 +1394,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>116</v>
@@ -1408,7 +1417,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>120</v>
@@ -1423,7 +1432,7 @@
         <v>123</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1434,7 +1443,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>124</v>
@@ -1448,7 +1457,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>124</v>
@@ -1462,7 +1471,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>129</v>
@@ -1476,7 +1485,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>124</v>
@@ -1490,7 +1499,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>124</v>
@@ -1504,7 +1513,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>129</v>
@@ -1528,89 +1537,86 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L2:L16 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1675,7 +1681,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1740,7 +1746,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1805,7 +1811,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1870,7 +1876,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1935,7 +1941,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -2000,7 +2006,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2065,7 +2071,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2130,7 +2136,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2195,7 +2201,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2260,7 +2266,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2325,7 +2331,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2390,7 +2396,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2465,39 +2471,38 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="L2:L16 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2505,10 +2510,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2516,10 +2521,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2527,10 +2532,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2538,10 +2543,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -2549,10 +2554,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -2560,10 +2565,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -2571,10 +2576,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -2582,10 +2587,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -2593,10 +2598,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -2604,10 +2609,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -2615,10 +2620,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2626,10 +2631,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2637,10 +2642,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -2648,10 +2653,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -2659,10 +2664,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -2670,10 +2675,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -2681,10 +2686,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -2692,10 +2697,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -2703,10 +2708,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -2724,42 +2729,41 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="L2:L16 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2767,10 +2771,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2778,10 +2782,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2789,10 +2793,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2800,10 +2804,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -2811,10 +2815,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -2822,10 +2826,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -2833,10 +2837,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -2844,10 +2848,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -2855,10 +2859,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -2866,10 +2870,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -2877,10 +2881,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2888,10 +2892,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2909,124 +2913,121 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="L2:L16 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -3041,124 +3042,121 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L2:L16 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -3173,35 +3171,32 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="L2:L16 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3212,7 +3207,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3223,7 +3218,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3234,7 +3229,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3245,7 +3240,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3256,7 +3251,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3267,7 +3262,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3278,7 +3273,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3289,7 +3284,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3300,7 +3295,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3311,7 +3306,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3322,7 +3317,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3333,7 +3328,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3354,35 +3349,32 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="1" sqref="L2:L16 E17"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.000228462011808056</v>
@@ -3393,7 +3385,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3404,7 +3396,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3415,7 +3407,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3426,7 +3418,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3437,7 +3429,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00559675402823174</v>
@@ -3448,7 +3440,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1E-012</v>
@@ -3459,7 +3451,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00310804602125163</v>
@@ -3470,7 +3462,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0308279171448426</v>
@@ -3481,7 +3473,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00181042853161852</v>
@@ -3492,7 +3484,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>8.28736361429022E-005</v>
@@ -3503,7 +3495,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.00604381725975038</v>
@@ -3514,7 +3506,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3525,7 +3517,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3536,7 +3528,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1E-012</v>
@@ -3547,7 +3539,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3558,7 +3550,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>9.44630572239322E-006</v>
@@ -3569,7 +3561,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>5.16846874940607E-006</v>
@@ -3580,7 +3572,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.000856570953217132</v>
@@ -3591,7 +3583,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.00016291524956886</v>
@@ -3612,36 +3604,35 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="L2:L16 D1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-81.4547774583559</v>
@@ -3652,7 +3643,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>18.5183721041727</v>
@@ -3663,7 +3654,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.431738943043251</v>
@@ -3674,7 +3665,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.567354685137039</v>
@@ -3685,7 +3676,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>85.3794767878033</v>
@@ -3696,7 +3687,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.103545682502924</v>
